--- a/data.xlsx
+++ b/data.xlsx
@@ -1546,7 +1546,7 @@
   <sheetPr/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2305,11 +2305,12 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="77.75" customWidth="1"/>
     <col min="3" max="3" width="85.375" customWidth="1"/>
   </cols>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14400" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="14400"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1_bak" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$A$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$2:$A$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="118">
   <si>
     <t>pattern</t>
   </si>
@@ -173,13 +174,13 @@
     <t>value 2</t>
   </si>
   <si>
+    <t>value 3</t>
+  </si>
+  <si>
     <t>found 2</t>
   </si>
   <si>
     <t>found 3</t>
-  </si>
-  <si>
-    <t>value 3</t>
   </si>
   <si>
     <t>name</t>
@@ -379,8 +380,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -409,21 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -440,17 +426,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,14 +436,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,6 +471,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -509,10 +502,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,22 +540,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,13 +555,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,13 +639,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,145 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,39 +746,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -796,6 +764,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -807,6 +784,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,15 +829,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -845,147 +837,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,7 +1010,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1546,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1571,54 +1575,46 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1626,109 +1622,91 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1736,54 +1714,46 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1791,32 +1761,28 @@
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1824,21 +1790,19 @@
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1846,76 +1810,64 @@
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1923,43 +1875,37 @@
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1967,21 +1913,19 @@
       <c r="A38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1989,21 +1933,19 @@
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2011,54 +1953,46 @@
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2066,43 +2000,37 @@
       <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2110,32 +2038,28 @@
       <c r="A51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2143,43 +2067,37 @@
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2187,59 +2105,51 @@
       <c r="A58" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B63" t="s">
@@ -2250,9 +2160,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
+      <c r="A64" s="5"/>
       <c r="B64" t="s">
         <v>50</v>
       </c>
@@ -2261,9 +2169,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
+      <c r="A65" s="5"/>
       <c r="B65" t="s">
         <v>49</v>
       </c>
@@ -2272,9 +2178,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>52</v>
-      </c>
+      <c r="A66" s="5"/>
       <c r="B66" t="s">
         <v>50</v>
       </c>
@@ -2283,17 +2187,32 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>52</v>
-      </c>
+      <c r="A67" s="5"/>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2302,10 +2221,768 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.7166666666667" customWidth="1"/>
+    <col min="2" max="2" width="42.3166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -2355,7 +3032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="118">
   <si>
     <t>pattern</t>
   </si>
@@ -174,13 +174,13 @@
     <t>value 2</t>
   </si>
   <si>
+    <t>found 2</t>
+  </si>
+  <si>
+    <t>found 3</t>
+  </si>
+  <si>
     <t>value 3</t>
-  </si>
-  <si>
-    <t>found 2</t>
-  </si>
-  <si>
-    <t>found 3</t>
   </si>
   <si>
     <t>name</t>
@@ -1013,7 +1013,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1550,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2148,55 +2148,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    <row r="63" spans="1:1">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="5"/>
-      <c r="B64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="5"/>
-      <c r="B65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="5"/>
-      <c r="B66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="5"/>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="A17:A21"/>
@@ -2211,7 +2179,6 @@
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2223,7 +2190,7 @@
   <sheetPr/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -2939,7 +2906,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -2950,7 +2917,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
@@ -2961,10 +2928,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
         <v>53</v>
-      </c>
-      <c r="B67" t="s">
-        <v>51</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2982,7 +2949,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1550,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1578,7 +1578,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1587,9 +1587,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
@@ -1605,7 +1603,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1614,9 +1612,7 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
@@ -2164,7 +2160,7 @@
       <c r="A67" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="A17:A21"/>
@@ -2179,6 +2175,8 @@
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
